--- a/boards/avr/piconomix_scorpion_board/px_board_gpio.xlsx
+++ b/boards/avr/piconomix_scorpion_board/px_board_gpio.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1737E3AE-6A91-494E-8325-30F83ED02262}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GPIO" sheetId="7" r:id="rId1"/>
@@ -14,12 +15,20 @@
     <definedName name="Dir">Options!$A$2:$A$3</definedName>
     <definedName name="Init">Options!$C$2:$C$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -30,9 +39,6 @@
     <t>Pin</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -124,12 +130,21 @@
   </si>
   <si>
     <t>PX_GPIO_PB</t>
+  </si>
+  <si>
+    <t>Definitions</t>
+  </si>
+  <si>
+    <t>Global variables</t>
+  </si>
+  <si>
+    <t>Map</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -355,6 +370,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -390,6 +422,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -565,11 +614,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC0A020"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
@@ -586,10 +635,14 @@
     <col min="7" max="7" width="2.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="3.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="59.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="10" max="10" width="9.140625" style="3"/>
+    <col min="11" max="11" width="54.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="3"/>
+    <col min="13" max="13" width="33.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,37 +653,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
       <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6">
         <f>VLOOKUP(D2,Options!A$2:B$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="6">
         <f>VLOOKUP(F2,Options!C$2:D$100,2,FALSE)</f>
@@ -641,26 +700,34 @@
         <f t="shared" ref="I2:I7" si="0">CONCATENATE("#define ",A2," GPIO(",B2,", ",C2,", ",D2,", ",F2,")")</f>
         <v>#define PX_GPIO_LED GPIO(B, 0, PX_GPIO_DIR_OUT, PX_GPIO_INIT_LO)</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K2" s="3" t="str">
+        <f>CONCATENATE("static const px_gpio_handle_t ",LOWER($A2)," = {",$A2,"};")</f>
+        <v>static const px_gpio_handle_t px_gpio_led = {PX_GPIO_LED};</v>
+      </c>
+      <c r="M2" s="3" t="str">
+        <f>CONCATENATE("#define PX_GPIO_",$B2,$C2," ",$A2)</f>
+        <v>#define PX_GPIO_B0 PX_GPIO_LED</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="6">
         <f>VLOOKUP(D3,Options!A$2:B$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="6">
         <f>VLOOKUP(F3,Options!C$2:D$100,2,FALSE)</f>
@@ -671,26 +738,34 @@
         <f t="shared" si="0"/>
         <v>#define PX_GPIO_SPI_CS_DF GPIO(B, 1, PX_GPIO_DIR_OUT, PX_GPIO_INIT_HI)</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K3" s="3" t="str">
+        <f t="shared" ref="K3:K14" si="1">CONCATENATE("static const px_gpio_handle_t ",LOWER($A3)," = {",$A3,"};")</f>
+        <v>static const px_gpio_handle_t px_gpio_spi_cs_df = {PX_GPIO_SPI_CS_DF};</v>
+      </c>
+      <c r="M3" s="3" t="str">
+        <f t="shared" ref="M3:M14" si="2">CONCATENATE("#define PX_GPIO_",$B3,$C3," ",$A3)</f>
+        <v>#define PX_GPIO_B1 PX_GPIO_SPI_CS_DF</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="6">
         <f>VLOOKUP(D4,Options!A$2:B$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="6">
         <f>VLOOKUP(F4,Options!C$2:D$100,2,FALSE)</f>
@@ -701,26 +776,34 @@
         <f t="shared" si="0"/>
         <v>#define PX_GPIO_CS GPIO(B, 2, PX_GPIO_DIR_OUT, PX_GPIO_INIT_HI)</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_cs = {PX_GPIO_CS};</v>
+      </c>
+      <c r="M4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_B2 PX_GPIO_CS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP(D5,Options!A$2:B$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="6">
         <f>VLOOKUP(F5,Options!C$2:D$100,2,FALSE)</f>
@@ -731,26 +814,34 @@
         <f t="shared" si="0"/>
         <v>#define PX_GPIO_MOSI GPIO(B, 3, PX_GPIO_DIR_OUT, PX_GPIO_INIT_LO)</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_mosi = {PX_GPIO_MOSI};</v>
+      </c>
+      <c r="M5" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_B3 PX_GPIO_MOSI</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4">
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP(D6,Options!A$2:B$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="6">
         <f>VLOOKUP(F6,Options!C$2:D$100,2,FALSE)</f>
@@ -761,26 +852,34 @@
         <f t="shared" si="0"/>
         <v>#define PX_GPIO_MISO GPIO(B, 4, PX_GPIO_DIR_IN, PX_GPIO_INIT_HIZ)</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_miso = {PX_GPIO_MISO};</v>
+      </c>
+      <c r="M6" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_B4 PX_GPIO_MISO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4">
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="6">
         <f>VLOOKUP(D7,Options!A$2:B$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="6">
         <f>VLOOKUP(F7,Options!C$2:D$100,2,FALSE)</f>
@@ -791,26 +890,34 @@
         <f t="shared" si="0"/>
         <v>#define PX_GPIO_SCK GPIO(B, 5, PX_GPIO_DIR_OUT, PX_GPIO_INIT_LO)</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_sck = {PX_GPIO_SCK};</v>
+      </c>
+      <c r="M7" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_B5 PX_GPIO_SCK</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="6">
         <f>VLOOKUP(D9,Options!A$2:B$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="6">
         <f>VLOOKUP(F9,Options!C$2:D$100,2,FALSE)</f>
@@ -818,29 +925,37 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="3" t="str">
-        <f t="shared" ref="I9:I14" si="1">CONCATENATE("#define ",A9," GPIO(",B9,", ",C9,", ",D9,", ",F9,")")</f>
+        <f t="shared" ref="I9:I14" si="3">CONCATENATE("#define ",A9," GPIO(",B9,", ",C9,", ",D9,", ",F9,")")</f>
         <v>#define PX_GPIO_ADC1 GPIO(C, 0, PX_GPIO_DIR_IN, PX_GPIO_INIT_HIZ)</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_adc1 = {PX_GPIO_ADC1};</v>
+      </c>
+      <c r="M9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_C0 PX_GPIO_ADC1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="6">
         <f>VLOOKUP(D10,Options!A$2:B$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="6">
         <f>VLOOKUP(F10,Options!C$2:D$100,2,FALSE)</f>
@@ -848,29 +963,37 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>#define PX_GPIO_ADC0 GPIO(C, 1, PX_GPIO_DIR_IN, PX_GPIO_INIT_HIZ)</v>
+      </c>
+      <c r="K10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#define PX_GPIO_ADC0 GPIO(C, 1, PX_GPIO_DIR_IN, PX_GPIO_INIT_HIZ)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_adc0 = {PX_GPIO_ADC0};</v>
+      </c>
+      <c r="M10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_C1 PX_GPIO_ADC0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="6">
         <f>VLOOKUP(D11,Options!A$2:B$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="6">
         <f>VLOOKUP(F11,Options!C$2:D$100,2,FALSE)</f>
@@ -878,29 +1001,37 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>#define PX_GPIO_4 GPIO(C, 2, PX_GPIO_DIR_IN, PX_GPIO_INIT_PULLUP)</v>
+      </c>
+      <c r="K11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#define PX_GPIO_4 GPIO(C, 2, PX_GPIO_DIR_IN, PX_GPIO_INIT_PULLUP)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_4 = {PX_GPIO_4};</v>
+      </c>
+      <c r="M11" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_C2 PX_GPIO_4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="4">
         <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="6">
         <f>VLOOKUP(D12,Options!A$2:B$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="6">
         <f>VLOOKUP(F12,Options!C$2:D$100,2,FALSE)</f>
@@ -908,29 +1039,37 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>#define PX_GPIO_3 GPIO(C, 3, PX_GPIO_DIR_IN, PX_GPIO_INIT_PULLUP)</v>
+      </c>
+      <c r="K12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#define PX_GPIO_3 GPIO(C, 3, PX_GPIO_DIR_IN, PX_GPIO_INIT_PULLUP)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_3 = {PX_GPIO_3};</v>
+      </c>
+      <c r="M12" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_C3 PX_GPIO_3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="4">
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="6">
         <f>VLOOKUP(D13,Options!A$2:B$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="6">
         <f>VLOOKUP(F13,Options!C$2:D$100,2,FALSE)</f>
@@ -938,29 +1077,37 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>#define PX_GPIO_I2C_SDA GPIO(C, 4, PX_GPIO_DIR_IN, PX_GPIO_INIT_PULLUP)</v>
+      </c>
+      <c r="K13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#define PX_GPIO_I2C_SDA GPIO(C, 4, PX_GPIO_DIR_IN, PX_GPIO_INIT_PULLUP)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_i2c_sda = {PX_GPIO_I2C_SDA};</v>
+      </c>
+      <c r="M13" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_C4 PX_GPIO_I2C_SDA</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="4">
         <v>5</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="6">
         <f>VLOOKUP(D14,Options!A$2:B$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="6">
         <f>VLOOKUP(F14,Options!C$2:D$100,2,FALSE)</f>
@@ -968,29 +1115,37 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>#define PX_GPIO_I2C_SCL GPIO(C, 5, PX_GPIO_DIR_IN, PX_GPIO_INIT_PULLUP)</v>
+      </c>
+      <c r="K14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#define PX_GPIO_I2C_SCL GPIO(C, 5, PX_GPIO_DIR_IN, PX_GPIO_INIT_PULLUP)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_i2c_scl = {PX_GPIO_I2C_SCL};</v>
+      </c>
+      <c r="M14" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_C5 PX_GPIO_I2C_SCL</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="6">
         <f>VLOOKUP(D16,Options!A$2:B$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="6">
         <f>VLOOKUP(F16,Options!C$2:D$100,2,FALSE)</f>
@@ -998,29 +1153,37 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="3" t="str">
-        <f t="shared" ref="I16:I23" si="2">CONCATENATE("#define ",A16," GPIO(",B16,", ",C16,", ",D16,", ",F16,")")</f>
+        <f t="shared" ref="I16:I23" si="4">CONCATENATE("#define ",A16," GPIO(",B16,", ",C16,", ",D16,", ",F16,")")</f>
         <v>#define PX_GPIO_SER_RXD GPIO(D, 0, PX_GPIO_DIR_IN, PX_GPIO_INIT_PULLUP)</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K16" s="3" t="str">
+        <f t="shared" ref="K16:K23" si="5">CONCATENATE("static const px_gpio_handle_t ",LOWER($A16)," = {",$A16,"};")</f>
+        <v>static const px_gpio_handle_t px_gpio_ser_rxd = {PX_GPIO_SER_RXD};</v>
+      </c>
+      <c r="M16" s="3" t="str">
+        <f t="shared" ref="M16:M23" si="6">CONCATENATE("#define PX_GPIO_",$B16,$C16," ",$A16)</f>
+        <v>#define PX_GPIO_D0 PX_GPIO_SER_RXD</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="6">
         <f>VLOOKUP(D17,Options!A$2:B$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" s="6">
         <f>VLOOKUP(F17,Options!C$2:D$100,2,FALSE)</f>
@@ -1028,29 +1191,37 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#define PX_GPIO_SER_TXD GPIO(D, 1, PX_GPIO_DIR_OUT, PX_GPIO_INIT_HI)</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>static const px_gpio_handle_t px_gpio_ser_txd = {PX_GPIO_SER_TXD};</v>
+      </c>
+      <c r="M17" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>#define PX_GPIO_D1 PX_GPIO_SER_TXD</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" s="6">
         <f>VLOOKUP(D18,Options!A$2:B$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="6">
         <f>VLOOKUP(F18,Options!C$2:D$100,2,FALSE)</f>
@@ -1058,29 +1229,37 @@
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#define PX_GPIO_2 GPIO(D, 2, PX_GPIO_DIR_IN, PX_GPIO_INIT_PULLUP)</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>static const px_gpio_handle_t px_gpio_2 = {PX_GPIO_2};</v>
+      </c>
+      <c r="M18" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>#define PX_GPIO_D2 PX_GPIO_2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="4">
         <v>3</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" s="6">
         <f>VLOOKUP(D19,Options!A$2:B$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="6">
         <f>VLOOKUP(F19,Options!C$2:D$100,2,FALSE)</f>
@@ -1088,29 +1267,37 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#define PX_GPIO_1 GPIO(D, 3, PX_GPIO_DIR_IN, PX_GPIO_INIT_PULLUP)</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K19" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>static const px_gpio_handle_t px_gpio_1 = {PX_GPIO_1};</v>
+      </c>
+      <c r="M19" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>#define PX_GPIO_D3 PX_GPIO_1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="4">
         <v>4</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="6">
         <f>VLOOKUP(D20,Options!A$2:B$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="6">
         <f>VLOOKUP(F20,Options!C$2:D$100,2,FALSE)</f>
@@ -1118,29 +1305,37 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#define PX_GPIO_0 GPIO(D, 4, PX_GPIO_DIR_IN, PX_GPIO_INIT_PULLUP)</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>static const px_gpio_handle_t px_gpio_0 = {PX_GPIO_0};</v>
+      </c>
+      <c r="M20" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>#define PX_GPIO_D4 PX_GPIO_0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="4">
         <v>5</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="6">
         <f>VLOOKUP(D21,Options!A$2:B$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" s="6">
         <f>VLOOKUP(F21,Options!C$2:D$100,2,FALSE)</f>
@@ -1148,29 +1343,37 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#define PX_GPIO_UART_SEL GPIO(D, 5, PX_GPIO_DIR_OUT, PX_GPIO_INIT_HI)</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>static const px_gpio_handle_t px_gpio_uart_sel = {PX_GPIO_UART_SEL};</v>
+      </c>
+      <c r="M21" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>#define PX_GPIO_D5 PX_GPIO_UART_SEL</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="4">
         <v>6</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="6">
         <f>VLOOKUP(D22,Options!A$2:B$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="6">
         <f>VLOOKUP(F22,Options!C$2:D$100,2,FALSE)</f>
@@ -1178,29 +1381,37 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#define PX_GPIO_PWM_BUZZER GPIO(D, 6, PX_GPIO_DIR_OUT, PX_GPIO_INIT_LO)</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>static const px_gpio_handle_t px_gpio_pwm_buzzer = {PX_GPIO_PWM_BUZZER};</v>
+      </c>
+      <c r="M22" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>#define PX_GPIO_D6 PX_GPIO_PWM_BUZZER</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="4">
         <v>7</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" s="6">
         <f>VLOOKUP(D23,Options!A$2:B$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" s="6">
         <f>VLOOKUP(F23,Options!C$2:D$100,2,FALSE)</f>
@@ -1208,8 +1419,16 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#define PX_GPIO_PB GPIO(D, 7, PX_GPIO_DIR_IN, PX_GPIO_INIT_PULLUP)</v>
+      </c>
+      <c r="K23" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>static const px_gpio_handle_t px_gpio_pb = {PX_GPIO_PB};</v>
+      </c>
+      <c r="M23" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>#define PX_GPIO_D7 PX_GPIO_PB</v>
       </c>
     </row>
   </sheetData>
@@ -1694,10 +1913,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7 D9:D14 D16:D23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7 D9:D14 D16:D23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Dir</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16:F23 F9:F14 F2:F7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16:F23 F9:F14 F2:F7" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Init</formula1>
     </dataValidation>
   </dataValidations>
@@ -1707,7 +1926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1725,24 +1944,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -1751,13 +1970,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
@@ -1766,7 +1985,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4">
         <v>3</v>
@@ -1775,7 +1994,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4">
         <v>4</v>
